--- a/TestCaseКривенцев.xlsx
+++ b/TestCaseКривенцев.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EgorPiva\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A793B2FF-59EB-4613-988D-611EF421AED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEA548F-343D-44D7-A2AA-C42CC2FC63B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{82F39D10-3413-4186-AC15-FFCCDA7CEF71}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{82F39D10-3413-4186-AC15-FFCCDA7CEF71}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Наименование:</t>
   </si>
@@ -140,6 +140,68 @@
   </si>
   <si>
     <t>Кривенцев Даниил</t>
+  </si>
+  <si>
+    <t>Проверка шифрования/дешифрования эмодзи (смайликов)</t>
+  </si>
+  <si>
+    <t>Тест-кейс для проверки работы с эмодзи в алгоритме Triple Des</t>
+  </si>
+  <si>
+    <t>😊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ключ 1    | yMGqa7Xb1po= </t>
+  </si>
+  <si>
+    <t>Ключ 2    | iPhuS2d8Qr4=</t>
+  </si>
+  <si>
+    <t>Ключ 3    | 3oA126U6nh0=</t>
+  </si>
+  <si>
+    <t>Исходный текст    | 😊</t>
+  </si>
+  <si>
+    <t>Ввести эмодзи в поле исходного текста</t>
+  </si>
+  <si>
+    <t>Текст корректно отображается</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Эмодзи корректно отобразились</t>
+  </si>
+  <si>
+    <t>Нажать "Зашифровать"</t>
+  </si>
+  <si>
+    <t>Получен зашифрованный текст в Base64</t>
+  </si>
+  <si>
+    <t>Получен зашифрованный текст: u3gFwVXhYTFkLEP5bxH+qQ==</t>
+  </si>
+  <si>
+    <t>Нажать "Дешифровать" с тем же набором ключей</t>
+  </si>
+  <si>
+    <t>Должен быть получен исходный текст 😊</t>
+  </si>
+  <si>
+    <t>Ошибка: "Результат дешифрования содержит недопустимые символы"</t>
+  </si>
+  <si>
+    <t>Проблема:
+Система не может дешифровать эмодзи (😊) после успешного шифрования. Выводит ошибку: "Недопустимые символы".
+Шаги воспроизведения:
+Зашифровать эмодзи (получаем Base64).
+Попытаться дешифровать (те же ключи).
+Ожидаемо: Исходные эмодзи.
+Фактически: Ошибка дешифрования.
+Причина:
+Сбой обработки Unicode в Triple DES (кодировка/многобайтовые символы).</t>
   </si>
 </sst>
 </file>
@@ -149,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,7 +239,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,6 +285,41 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -435,19 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -622,6 +707,19 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,7 +736,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -659,11 +757,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -671,81 +769,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -774,6 +825,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,26 +837,67 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -830,10 +925,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>46955</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>310032</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73AC6376-7FC8-4A62-BEE6-8370D1704C84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9699403" y="160986"/>
+          <a:ext cx="6769591" cy="5351757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -871,7 +1015,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -977,7 +1121,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1119,7 +1263,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1127,86 +1271,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7F9E96-170F-432E-B44C-F427878EC409}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="36" t="s">
+      <c r="C1" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2">
         <v>2</v>
       </c>
-      <c r="H1" s="48"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38" t="s">
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A2" s="51"/>
+      <c r="B2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46" t="s">
+      <c r="C2" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="49"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46" t="s">
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="49"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="A4" s="41"/>
-      <c r="B4" s="36" t="s">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="36" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="4">
         <v>45814</v>
       </c>
-      <c r="H4" s="48"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.600000000000001" thickBot="1">
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1216,19 +1366,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="18">
-      <c r="A6" s="41"/>
-      <c r="B6" s="50" t="s">
+    <row r="6" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A6" s="24"/>
+      <c r="B6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="45" t="s">
+        <v>37</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
       <c r="B7" s="11" t="s">
         <v>9</v>
@@ -1240,9 +1392,11 @@
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="18">
+    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.5">
       <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="46" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="13"/>
@@ -1250,9 +1404,11 @@
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="18">
+    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.5">
       <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="46" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="12"/>
       <c r="D9" s="7"/>
       <c r="E9" s="13"/>
@@ -1260,9 +1416,11 @@
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="18.600000000000001" thickBot="1">
+    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="46" t="s">
+        <v>40</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1270,122 +1428,156 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="17.399999999999999">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52" t="s">
+    <row r="12" spans="1:8" ht="22.9" x14ac:dyDescent="0.45">
+      <c r="B12" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="48"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C15" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D15" s="36">
         <v>6</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E15" s="36">
         <v>2</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F15" s="36">
         <v>0</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G15" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H15" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34.799999999999997">
-      <c r="A12" s="56" t="s">
+    <row r="16" spans="1:8" ht="33.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B16" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C16" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D16" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F16" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H16" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" ht="18">
-      <c r="A14" s="16"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="18">
-      <c r="A15" s="16"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" ht="18">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="17"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" ht="18">
-      <c r="A17" s="15"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" ht="18">
-      <c r="A18" s="24"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" ht="18">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="27"/>
+    <row r="17" spans="1:8" ht="22.9" x14ac:dyDescent="0.45">
+      <c r="A17" s="14">
+        <v>1</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="16">
+        <v>2</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="16">
+        <v>3</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" s="15"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="49"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1399,103 +1591,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9D82BB-A25D-438E-8A73-46CCD2E69524}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="29.77734375" customWidth="1"/>
+    <col min="1" max="3" width="29.796875" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="A2" s="21" t="s">
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="21" t="s">
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="A4" s="21" t="s">
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="A5" s="59" t="s">
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="58" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="264.60000000000002" customHeight="1" thickBot="1">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:4" ht="264.39999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B6" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>